--- a/docs/画面項目定義書/user_management/user_management_dashboard.xlsx
+++ b/docs/画面項目定義書/user_management/user_management_dashboard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po723\private_cloud\private-cloud\docs\画面項目定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fittu\OneDrive\ドキュメント\K022C0084\KCI\Kamata-Cloud-Infrastructure\docs\画面項目定義書\user_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EBBBD8-0503-4DAB-996B-D8E526369A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D8CB8A-37C0-40DE-A640-4D7193F6A5F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11295" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
   </bookViews>
   <sheets>
     <sheet name="利用者管理ダッシュボード" sheetId="1" r:id="rId1"/>
@@ -78,13 +78,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>利用者管理ダッシュボード.html</t>
-    <rPh sb="0" eb="5">
-      <t>リヨウシャカンリ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>管理者サイドバー</t>
     <rPh sb="0" eb="3">
       <t>カンリシャ</t>
@@ -181,19 +174,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>利用者の追加モーダルへ遷移</t>
-    <rPh sb="0" eb="3">
-      <t>リヨウシャ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>編集ボタン</t>
     <rPh sb="0" eb="2">
       <t>ヘンシュウ</t>
@@ -235,28 +215,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>繰り返しで表示、押下時利用者詳細/編集画面へ遷移</t>
-    <rPh sb="8" eb="10">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>リヨウシャ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="17" eb="21">
-      <t>ヘンシュウガメン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>ユーザーオブジェクトを取得し、繰り返しで表示</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -325,6 +283,30 @@
     </rPh>
     <rPh sb="9" eb="12">
       <t>ヒヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>user_management_dashboard</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>mo_user_addへ遷移</t>
+    <rPh sb="12" eb="14">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>繰り返しで表示、押下時user_detail/mo_user_editへ遷移</t>
+    <rPh sb="8" eb="10">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1282,8 +1264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D0D6EF-4038-413F-A2F1-0B97FD7B8E5A}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="95" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="95" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1352,7 +1334,7 @@
       </c>
       <c r="B6" s="41"/>
       <c r="C6" s="15" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="26"/>
@@ -1394,12 +1376,12 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
       <c r="B9" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="21"/>
       <c r="E9" s="28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="31"/>
       <c r="G9" s="35"/>
@@ -1407,10 +1389,10 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="6"/>
       <c r="B10" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="29" t="s">
@@ -1422,14 +1404,14 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="6"/>
       <c r="B11" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" s="32"/>
       <c r="G11" s="36"/>
@@ -1437,148 +1419,148 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>18</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>19</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="32"/>
       <c r="G12" s="36" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="6"/>
       <c r="B13" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F13" s="32"/>
       <c r="G13" s="36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="6"/>
       <c r="B14" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F14" s="32"/>
       <c r="G14" s="36" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
       <c r="B15" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="32"/>
       <c r="G15" s="36" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="6"/>
       <c r="B16" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F16" s="32"/>
       <c r="G16" s="36" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F17" s="32"/>
       <c r="G17" s="36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="24" x14ac:dyDescent="0.4">
       <c r="A18" s="6"/>
       <c r="B18" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="32"/>
       <c r="G18" s="36" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="6"/>
       <c r="B19" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F19" s="32"/>
       <c r="G19" s="36" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="6"/>
       <c r="B20" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="22"/>
       <c r="E20" s="29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F20" s="32"/>
       <c r="G20" s="36"/>
@@ -1586,35 +1568,35 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="6"/>
       <c r="B21" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="29" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F21" s="32"/>
       <c r="G21" s="36" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="24" x14ac:dyDescent="0.4">
       <c r="A22" s="6"/>
       <c r="B22" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="29" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F22" s="32"/>
       <c r="G22" s="36" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">

--- a/docs/画面項目定義書/user_management/user_management_dashboard.xlsx
+++ b/docs/画面項目定義書/user_management/user_management_dashboard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fittu\OneDrive\ドキュメント\K022C0084\KCI\Kamata-Cloud-Infrastructure\docs\画面項目定義書\user_management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\user_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D8CB8A-37C0-40DE-A640-4D7193F6A5F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A70941-A944-4796-A852-F165881D7892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
   </bookViews>
   <sheets>
     <sheet name="利用者管理ダッシュボード" sheetId="1" r:id="rId1"/>
@@ -219,22 +219,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ユーザーオブジェクトを取得し、繰り返しで表示</t>
-    <rPh sb="11" eb="13">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>確認ポップアップ</t>
     <rPh sb="0" eb="2">
       <t>カクニン</t>
@@ -306,6 +290,29 @@
       <t>ジ</t>
     </rPh>
     <rPh sb="36" eb="38">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ユーザーオブジェクトを取得し、繰り返しで表示
+押下時、user_detailへ遷移</t>
+    <rPh sb="11" eb="13">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
       <t>センイ</t>
     </rPh>
     <phoneticPr fontId="4"/>
@@ -1265,19 +1272,19 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B9" zoomScale="95" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.625" customWidth="1"/>
+    <col min="4" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.58203125" customWidth="1"/>
     <col min="7" max="7" width="37.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1288,7 +1295,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1297,7 +1304,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -1306,7 +1313,7 @@
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1315,7 +1322,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="38" t="s">
         <v>1</v>
       </c>
@@ -1328,20 +1335,20 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="40" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="41"/>
       <c r="C6" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="26"/>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2"/>
       <c r="B7" s="10"/>
       <c r="C7" s="2"/>
@@ -1350,7 +1357,7 @@
       <c r="F7" s="20"/>
       <c r="G7" s="33"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
@@ -1373,7 +1380,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5"/>
       <c r="B9" s="12" t="s">
         <v>12</v>
@@ -1386,7 +1393,7 @@
       <c r="F9" s="31"/>
       <c r="G9" s="35"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="6"/>
       <c r="B10" s="13" t="s">
         <v>14</v>
@@ -1401,7 +1408,7 @@
       <c r="F10" s="32"/>
       <c r="G10" s="36"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="6"/>
       <c r="B11" s="13" t="s">
         <v>15</v>
@@ -1416,7 +1423,7 @@
       <c r="F11" s="32"/>
       <c r="G11" s="36"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5"/>
       <c r="B12" s="13" t="s">
         <v>17</v>
@@ -1430,10 +1437,10 @@
       </c>
       <c r="F12" s="32"/>
       <c r="G12" s="36" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="6"/>
       <c r="B13" s="13" t="s">
         <v>21</v>
@@ -1447,10 +1454,10 @@
       </c>
       <c r="F13" s="32"/>
       <c r="G13" s="36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="6"/>
       <c r="B14" s="13" t="s">
         <v>22</v>
@@ -1467,7 +1474,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5"/>
       <c r="B15" s="13" t="s">
         <v>23</v>
@@ -1484,7 +1491,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="6"/>
       <c r="B16" s="13" t="s">
         <v>24</v>
@@ -1501,7 +1508,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5"/>
       <c r="B17" s="13" t="s">
         <v>26</v>
@@ -1518,7 +1525,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="24" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="6"/>
       <c r="B18" s="13" t="s">
         <v>27</v>
@@ -1532,10 +1539,10 @@
       </c>
       <c r="F18" s="32"/>
       <c r="G18" s="36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="6"/>
       <c r="B19" s="13" t="s">
         <v>31</v>
@@ -1549,13 +1556,13 @@
       </c>
       <c r="F19" s="32"/>
       <c r="G19" s="36" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="6"/>
       <c r="B20" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="22"/>
@@ -1565,41 +1572,41 @@
       <c r="F20" s="32"/>
       <c r="G20" s="36"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="6"/>
       <c r="B21" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F21" s="32"/>
       <c r="G21" s="36" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="24" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="6"/>
       <c r="B22" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F22" s="32"/>
       <c r="G22" s="36" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="6"/>
       <c r="B23" s="13"/>
       <c r="C23" s="17"/>
@@ -1608,7 +1615,7 @@
       <c r="F23" s="32"/>
       <c r="G23" s="36"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="6"/>
       <c r="B24" s="13"/>
       <c r="C24" s="17"/>
@@ -1617,7 +1624,7 @@
       <c r="F24" s="32"/>
       <c r="G24" s="36"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="6"/>
       <c r="B25" s="13"/>
       <c r="C25" s="17"/>
@@ -1626,7 +1633,7 @@
       <c r="F25" s="32"/>
       <c r="G25" s="36"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="6"/>
       <c r="B26" s="13"/>
       <c r="C26" s="17"/>
@@ -1635,7 +1642,7 @@
       <c r="F26" s="32"/>
       <c r="G26" s="36"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="6"/>
       <c r="B27" s="13"/>
       <c r="C27" s="17"/>
@@ -1644,7 +1651,7 @@
       <c r="F27" s="32"/>
       <c r="G27" s="36"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="6"/>
       <c r="B28" s="13"/>
       <c r="C28" s="17"/>
@@ -1653,7 +1660,7 @@
       <c r="F28" s="32"/>
       <c r="G28" s="36"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>

--- a/docs/画面項目定義書/user_management/user_management_dashboard.xlsx
+++ b/docs/画面項目定義書/user_management/user_management_dashboard.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\user_management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kamata-Cloud-Infrastructure\docs\画面項目定義書\user_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A70941-A944-4796-A852-F165881D7892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D73D2C0-B6A4-4A48-B506-6C745D62071F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
   </bookViews>
   <sheets>
     <sheet name="利用者管理ダッシュボード" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
   <si>
     <t>日本工学院</t>
   </si>
@@ -314,6 +314,22 @@
     </rPh>
     <rPh sb="39" eb="41">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>該当ユーザーエンティティを削除し、確認ポップアップを非表示</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>ヒヒョウジ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1271,20 +1287,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D0D6EF-4038-413F-A2F1-0B97FD7B8E5A}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="95" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="95" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.58203125" customWidth="1"/>
+    <col min="4" max="5" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.625" customWidth="1"/>
     <col min="7" max="7" width="37.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1295,7 +1311,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1304,7 +1320,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -1313,7 +1329,7 @@
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:7" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1322,7 +1338,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="38" t="s">
         <v>1</v>
       </c>
@@ -1335,7 +1351,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="40" t="s">
         <v>11</v>
       </c>
@@ -1348,7 +1364,7 @@
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="10"/>
       <c r="C7" s="2"/>
@@ -1357,7 +1373,7 @@
       <c r="F7" s="20"/>
       <c r="G7" s="33"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
@@ -1380,7 +1396,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
       <c r="B9" s="12" t="s">
         <v>12</v>
@@ -1393,7 +1409,7 @@
       <c r="F9" s="31"/>
       <c r="G9" s="35"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="6"/>
       <c r="B10" s="13" t="s">
         <v>14</v>
@@ -1408,7 +1424,7 @@
       <c r="F10" s="32"/>
       <c r="G10" s="36"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="6"/>
       <c r="B11" s="13" t="s">
         <v>15</v>
@@ -1423,7 +1439,7 @@
       <c r="F11" s="32"/>
       <c r="G11" s="36"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="13" t="s">
         <v>17</v>
@@ -1440,7 +1456,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" ht="24" x14ac:dyDescent="0.4">
       <c r="A13" s="6"/>
       <c r="B13" s="13" t="s">
         <v>21</v>
@@ -1457,7 +1473,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="6"/>
       <c r="B14" s="13" t="s">
         <v>22</v>
@@ -1474,7 +1490,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
       <c r="B15" s="13" t="s">
         <v>23</v>
@@ -1491,7 +1507,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="6"/>
       <c r="B16" s="13" t="s">
         <v>24</v>
@@ -1508,7 +1524,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="13" t="s">
         <v>26</v>
@@ -1525,7 +1541,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:7" ht="24" x14ac:dyDescent="0.4">
       <c r="A18" s="6"/>
       <c r="B18" s="13" t="s">
         <v>27</v>
@@ -1542,7 +1558,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="6"/>
       <c r="B19" s="13" t="s">
         <v>31</v>
@@ -1559,7 +1575,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="6"/>
       <c r="B20" s="13" t="s">
         <v>34</v>
@@ -1572,7 +1588,7 @@
       <c r="F20" s="32"/>
       <c r="G20" s="36"/>
     </row>
-    <row r="21" spans="1:7" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:7" ht="24" x14ac:dyDescent="0.4">
       <c r="A21" s="6"/>
       <c r="B21" s="13" t="s">
         <v>35</v>
@@ -1586,10 +1602,10 @@
       </c>
       <c r="F21" s="32"/>
       <c r="G21" s="36" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="24" x14ac:dyDescent="0.55000000000000004">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="24" x14ac:dyDescent="0.4">
       <c r="A22" s="6"/>
       <c r="B22" s="13" t="s">
         <v>36</v>
@@ -1606,7 +1622,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="6"/>
       <c r="B23" s="13"/>
       <c r="C23" s="17"/>
@@ -1615,7 +1631,7 @@
       <c r="F23" s="32"/>
       <c r="G23" s="36"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="6"/>
       <c r="B24" s="13"/>
       <c r="C24" s="17"/>
@@ -1624,7 +1640,7 @@
       <c r="F24" s="32"/>
       <c r="G24" s="36"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="6"/>
       <c r="B25" s="13"/>
       <c r="C25" s="17"/>
@@ -1633,7 +1649,7 @@
       <c r="F25" s="32"/>
       <c r="G25" s="36"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="6"/>
       <c r="B26" s="13"/>
       <c r="C26" s="17"/>
@@ -1642,7 +1658,7 @@
       <c r="F26" s="32"/>
       <c r="G26" s="36"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="6"/>
       <c r="B27" s="13"/>
       <c r="C27" s="17"/>
@@ -1651,7 +1667,7 @@
       <c r="F27" s="32"/>
       <c r="G27" s="36"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="6"/>
       <c r="B28" s="13"/>
       <c r="C28" s="17"/>
@@ -1660,7 +1676,7 @@
       <c r="F28" s="32"/>
       <c r="G28" s="36"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>

--- a/docs/画面項目定義書/user_management/user_management_dashboard.xlsx
+++ b/docs/画面項目定義書/user_management/user_management_dashboard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kamata-Cloud-Infrastructure\docs\画面項目定義書\user_management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\user_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D73D2C0-B6A4-4A48-B506-6C745D62071F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1D1CBB-B53B-49BC-9F1A-C8D9B47CA988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
   </bookViews>
   <sheets>
     <sheet name="利用者管理ダッシュボード" sheetId="1" r:id="rId1"/>
@@ -271,10 +271,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>user_management_dashboard</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>mo_user_addへ遷移</t>
     <rPh sb="12" eb="14">
       <t>センイ</t>
@@ -331,6 +327,10 @@
     <rPh sb="26" eb="29">
       <t>ヒヒョウジ</t>
     </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>user_management_dashboard.html</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1287,20 +1287,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D0D6EF-4038-413F-A2F1-0B97FD7B8E5A}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="95" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="F12" zoomScale="95" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.625" customWidth="1"/>
+    <col min="4" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.58203125" customWidth="1"/>
     <col min="7" max="7" width="37.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1311,7 +1311,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1320,7 +1320,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -1329,7 +1329,7 @@
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1338,7 +1338,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="38" t="s">
         <v>1</v>
       </c>
@@ -1351,20 +1351,20 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="40" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="41"/>
       <c r="C6" s="15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="26"/>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2"/>
       <c r="B7" s="10"/>
       <c r="C7" s="2"/>
@@ -1373,7 +1373,7 @@
       <c r="F7" s="20"/>
       <c r="G7" s="33"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5"/>
       <c r="B9" s="12" t="s">
         <v>12</v>
@@ -1409,7 +1409,7 @@
       <c r="F9" s="31"/>
       <c r="G9" s="35"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="6"/>
       <c r="B10" s="13" t="s">
         <v>14</v>
@@ -1424,7 +1424,7 @@
       <c r="F10" s="32"/>
       <c r="G10" s="36"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="6"/>
       <c r="B11" s="13" t="s">
         <v>15</v>
@@ -1439,7 +1439,7 @@
       <c r="F11" s="32"/>
       <c r="G11" s="36"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5"/>
       <c r="B12" s="13" t="s">
         <v>17</v>
@@ -1453,10 +1453,10 @@
       </c>
       <c r="F12" s="32"/>
       <c r="G12" s="36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="24" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="6"/>
       <c r="B13" s="13" t="s">
         <v>21</v>
@@ -1470,10 +1470,10 @@
       </c>
       <c r="F13" s="32"/>
       <c r="G13" s="36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="6"/>
       <c r="B14" s="13" t="s">
         <v>22</v>
@@ -1490,7 +1490,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5"/>
       <c r="B15" s="13" t="s">
         <v>23</v>
@@ -1507,7 +1507,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="6"/>
       <c r="B16" s="13" t="s">
         <v>24</v>
@@ -1524,7 +1524,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5"/>
       <c r="B17" s="13" t="s">
         <v>26</v>
@@ -1541,7 +1541,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="24" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="6"/>
       <c r="B18" s="13" t="s">
         <v>27</v>
@@ -1555,10 +1555,10 @@
       </c>
       <c r="F18" s="32"/>
       <c r="G18" s="36" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="6"/>
       <c r="B19" s="13" t="s">
         <v>31</v>
@@ -1575,7 +1575,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="6"/>
       <c r="B20" s="13" t="s">
         <v>34</v>
@@ -1588,7 +1588,7 @@
       <c r="F20" s="32"/>
       <c r="G20" s="36"/>
     </row>
-    <row r="21" spans="1:7" ht="24" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="6"/>
       <c r="B21" s="13" t="s">
         <v>35</v>
@@ -1602,10 +1602,10 @@
       </c>
       <c r="F21" s="32"/>
       <c r="G21" s="36" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="24" x14ac:dyDescent="0.4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="6"/>
       <c r="B22" s="13" t="s">
         <v>36</v>
@@ -1622,7 +1622,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="6"/>
       <c r="B23" s="13"/>
       <c r="C23" s="17"/>
@@ -1631,7 +1631,7 @@
       <c r="F23" s="32"/>
       <c r="G23" s="36"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="6"/>
       <c r="B24" s="13"/>
       <c r="C24" s="17"/>
@@ -1640,7 +1640,7 @@
       <c r="F24" s="32"/>
       <c r="G24" s="36"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="6"/>
       <c r="B25" s="13"/>
       <c r="C25" s="17"/>
@@ -1649,7 +1649,7 @@
       <c r="F25" s="32"/>
       <c r="G25" s="36"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="6"/>
       <c r="B26" s="13"/>
       <c r="C26" s="17"/>
@@ -1658,7 +1658,7 @@
       <c r="F26" s="32"/>
       <c r="G26" s="36"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="6"/>
       <c r="B27" s="13"/>
       <c r="C27" s="17"/>
@@ -1667,7 +1667,7 @@
       <c r="F27" s="32"/>
       <c r="G27" s="36"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="6"/>
       <c r="B28" s="13"/>
       <c r="C28" s="17"/>
@@ -1676,7 +1676,7 @@
       <c r="F28" s="32"/>
       <c r="G28" s="36"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
